--- a/exportExcel/EDA_engages_par_CE.xlsx
+++ b/exportExcel/EDA_engages_par_CE.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>EDA engagés le 14/6/2017</t>
-  </si>
-  <si>
-    <t>CE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+  <si>
+    <t>EDA engagés le 15/6/2017</t>
+  </si>
+  <si>
+    <t>ceA</t>
   </si>
   <si>
     <t>EDA</t>
@@ -41,16 +41,61 @@
     <t/>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>RO_1</t>
-  </si>
-  <si>
-    <t>08 00 00 00 00</t>
-  </si>
-  <si>
-    <t>09 00 00 00 00</t>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>dmo1</t>
+  </si>
+  <si>
+    <t>puissance1</t>
+  </si>
+  <si>
+    <t>ro1</t>
+  </si>
+  <si>
+    <t>telPrinc1</t>
+  </si>
+  <si>
+    <t>telSecours1</t>
+  </si>
+  <si>
+    <t>edaf</t>
+  </si>
+  <si>
+    <t>dmo2</t>
+  </si>
+  <si>
+    <t>puissance2</t>
+  </si>
+  <si>
+    <t>ro2</t>
+  </si>
+  <si>
+    <t>telPrinc2</t>
+  </si>
+  <si>
+    <t>telSecours2</t>
+  </si>
+  <si>
+    <t>ceB</t>
+  </si>
+  <si>
+    <t>edae</t>
+  </si>
+  <si>
+    <t>dmo3</t>
+  </si>
+  <si>
+    <t>puissance3</t>
+  </si>
+  <si>
+    <t>ro3</t>
+  </si>
+  <si>
+    <t>telPrinc3</t>
+  </si>
+  <si>
+    <t>telSecours3</t>
   </si>
 </sst>
 </file>
@@ -126,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -186,47 +231,11 @@
         <color indexed="60"/>
       </top>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="60"/>
-      </left>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="60"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color indexed="60"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -247,20 +256,14 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,43 +313,135 @@
       <c r="B4" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C4" t="n" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="D4" t="n" s="6">
-        <v>1783.0</v>
+      <c r="C4" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="D5" t="n" s="9">
-        <v>1783.0</v>
-      </c>
-      <c r="E5" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s" s="10">
-        <v>12</v>
+      <c r="A5" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s" s="8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -355,6 +450,8 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
